--- a/results/xlsx_reports/Rastrigin_RO.xlsx
+++ b/results/xlsx_reports/Rastrigin_RO.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>D=2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>D=10</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>D=2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.0915881773516744</v>
+      </c>
+      <c r="C2" t="n">
         <v>49.53113930117082</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0915881773516744</v>
       </c>
       <c r="D2" t="n">
         <v>304.8322615697987</v>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2.134111393885597</v>
+      </c>
+      <c r="C3" t="n">
         <v>67.09973864928523</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.134111393885597</v>
       </c>
       <c r="D3" t="n">
         <v>346.8450637450043</v>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>4.42801425176695</v>
+      </c>
+      <c r="C4" t="n">
         <v>91.12238964983555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.42801425176695</v>
       </c>
       <c r="D4" t="n">
         <v>393.0562328304087</v>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1.097300963759948</v>
+      </c>
+      <c r="C5" t="n">
         <v>10.44709524767467</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.097300963759948</v>
       </c>
       <c r="D5" t="n">
         <v>25.23336940526912</v>
